--- a/medicine/Enfance/L'Âge_des_étoiles_(collection)/L'Âge_des_étoiles_(collection).xlsx
+++ b/medicine/Enfance/L'Âge_des_étoiles_(collection)/L'Âge_des_étoiles_(collection).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_des_%C3%A9toiles_(collection)</t>
+          <t>L'Âge_des_étoiles_(collection)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Âge des étoiles est une collection de romans de science-fiction aux éditions Robert Laffont et dirigée par Gérard Klein et Karin Brown. Destinée à un public adolescent, elle comporte seulement onze ouvrages parus entre 1977 et 1979.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_des_%C3%A9toiles_(collection)</t>
+          <t>L'Âge_des_étoiles_(collection)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,20 +528,93 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1977
-La Porte des mondes (The Gate of Worlds) par Robert Silverberg, trad. Annie Saumont, couverture illustrée par Moebius
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La Porte des mondes (The Gate of Worlds) par Robert Silverberg, trad. Annie Saumont, couverture illustrée par Moebius
 L'Enfant tombé des étoiles (The Star Beast) par Robert A. Heinlein, trad. Régine Vivier, couverture illustrée par Enki Bilal
 L'Arbre-Miroir par Christian Léourier, couverture illustrée par Philippe Druillet
 Le Vagabond de l'espace (Have Space Suite, Will Travel) par Robert A. Heinlein, trad. Michel Deutsch, couverture illustrée par Jean-Claude Mézières
 Le Sablier vert par Michel Jeury, couverture illustrée par Robert Gigi
-La Planète des ours (Iron Cage) par Andre Norton, trad. Iawa Tate, couverture illustrée par Jacques Tardi
-1978
- L'Île sur l'océan nuit par Michel Grimaud, couverture illustrée par Jean-Claude Mézières
+La Planète des ours (Iron Cage) par Andre Norton, trad. Iawa Tate, couverture illustrée par Jacques Tardi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>L'Âge_des_étoiles_(collection)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_des_%C3%A9toiles_(collection)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L'Île sur l'océan nuit par Michel Grimaud, couverture illustrée par Jean-Claude Mézières
 Le Montreur d'étincelles par Christian Grenier, couverture illustrée par Jean-Marc Laureau
 Le Monde du Lignus par Michel Jeury, couverture illustrée par Serge Clerc  (ISBN 2-221-00052-8)
-L'Enfant contre la nuit (The Dark Is Rising) par Susan Cooper, trad. Jean Bailhache, couverture illustrée par Jean-Claude Gal  (ISBN 2-221-00034-X)
-1979
- Galactica, la bataille de l'espace (Battlestar Galactica) par Glen A. Larson et Robert Thurston (en), trad. Jacques Polanis, une novelisation du film Galactica (seul volume dont la couverture ne soit pas dessinée car elle reprend des images du film)  (ISBN 2-221-00247-4)
+L'Enfant contre la nuit (The Dark Is Rising) par Susan Cooper, trad. Jean Bailhache, couverture illustrée par Jean-Claude Gal  (ISBN 2-221-00034-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L'Âge_des_étoiles_(collection)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_des_%C3%A9toiles_(collection)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Galactica, la bataille de l'espace (Battlestar Galactica) par Glen A. Larson et Robert Thurston (en), trad. Jacques Polanis, une novelisation du film Galactica (seul volume dont la couverture ne soit pas dessinée car elle reprend des images du film)  (ISBN 2-221-00247-4)
  Portail de la science-fiction   Portail de la littérature   Portail de la littérature d’enfance et de jeunesse                   </t>
         </is>
       </c>
